--- a/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
+++ b/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE79245-8AF9-C843-9E6E-4C4D7061018F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15DAC5-DF31-B442-B87F-2E325F9BE462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="13980" activeTab="5" xr2:uid="{3731A0CD-A027-D244-A9F7-3355FF30D838}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="293">
   <si>
     <t>Project Name</t>
   </si>
@@ -492,9 +492,6 @@
 • Fill the rest of the field and save the detail.</t>
   </si>
   <si>
-    <t>• An error message : Please enter the account no.</t>
-  </si>
-  <si>
     <t>• An error message : Special character is not allowed in account no.</t>
   </si>
   <si>
@@ -574,12 +571,6 @@
     <t>• An error message : Special characters are not allowed in  Amount Lower Limit Field</t>
   </si>
   <si>
-    <t>• An error message : Account No cannot be blank. Please enter the valid account no.</t>
-  </si>
-  <si>
-    <t>• An error message : Amount Lower Limit cannot be blank. Please enter valid amount lower limit.</t>
-  </si>
-  <si>
     <t>• An error message : Character are not allowed in Amount Lower Field.</t>
   </si>
   <si>
@@ -589,22 +580,381 @@
     <t>• An error message : Special characters are not allowed in Number of Transcation Field</t>
   </si>
   <si>
-    <t>• An error message : Number of transaction cannot be blank. Please enter the valid account no.</t>
-  </si>
-  <si>
     <t>As Expected</t>
   </si>
   <si>
-    <t>Partially as Expected.
-Clarification Required :
-• Error was space in the first character but the system report the numbers are not allowed in the name field.</t>
+    <t>An error message : Customer id is required.</t>
+  </si>
+  <si>
+    <t>An error message : Special characters are not allowed.</t>
+  </si>
+  <si>
+    <t>An error message : Characters are not allowed</t>
+  </si>
+  <si>
+    <t>An error message : Space in the first character are not allowed.</t>
+  </si>
+  <si>
+    <t>As expected.</t>
+  </si>
+  <si>
+    <t>No error message shown.</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Connection error is shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot be connected due to </t>
+  </si>
+  <si>
+    <t>No error message is shown</t>
+  </si>
+  <si>
+    <t>Wrong error message.</t>
+  </si>
+  <si>
+    <t>No error message</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>An error message : State must not be blank.</t>
+  </si>
+  <si>
+    <t>An error message : Pin Code must not be blank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An error message : PIN code must be six digit.</t>
+  </si>
+  <si>
+    <t>An error message : Mobile no must not be blank</t>
+  </si>
+  <si>
+    <t>An error message : Special character are not allowed</t>
+  </si>
+  <si>
+    <t>No error message.</t>
+  </si>
+  <si>
+    <t>An error message : Email ID must not be blank</t>
+  </si>
+  <si>
+    <t>An error message : First character can not have space</t>
+  </si>
+  <si>
+    <t>• An error message : Customer id must not be blank.</t>
+  </si>
+  <si>
+    <t>• An error message : Special characters  are not allowed.</t>
+  </si>
+  <si>
+    <t>• An error message : Characters are not allowed.</t>
+  </si>
+  <si>
+    <t>• An error message : First character cannot have space.</t>
+  </si>
+  <si>
+    <t>No error mesage.</t>
+  </si>
+  <si>
+    <t>Verify Initial Deposit</t>
+  </si>
+  <si>
+    <t>Cannot be empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Initial Deposit Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Initial deposit cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>Must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>1234Acc
+Acc123</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit must be numeric" must be shown</t>
+  </si>
+  <si>
+    <t>Cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Initial Deposit Field</t>
+  </si>
+  <si>
+    <t>123!@#
+!@#</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have special character" must be shown</t>
+  </si>
+  <si>
+    <t>Initial Deposit cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Initial Deposit cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>123 12</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>First Character cannot be space</t>
+  </si>
+  <si>
+    <t>1) Enter first character space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Initial Deposit cannot have first character space" must be shown</t>
+  </si>
+  <si>
+    <t>NA_2</t>
+  </si>
+  <si>
+    <t>NA_3</t>
+  </si>
+  <si>
+    <t>NA_4</t>
+  </si>
+  <si>
+    <t>NA_5</t>
+  </si>
+  <si>
+    <t>NA_6</t>
+  </si>
+  <si>
+    <t>NA_7</t>
+  </si>
+  <si>
+    <t>NA_8</t>
+  </si>
+  <si>
+    <t>NA_9</t>
+  </si>
+  <si>
+    <t>Verify Customer id</t>
+  </si>
+  <si>
+    <t>Customer id cannot be 
+empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Customer id Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>Cannot be executed due to connection issue</t>
+  </si>
+  <si>
+    <t>Customer id must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Customer id Field</t>
+  </si>
+  <si>
+    <t>An error message "Customer id must be numeric" must be shown</t>
+  </si>
+  <si>
+    <t>Customer id cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Customer id  Field</t>
+  </si>
+  <si>
+    <t>An error message "Customer id  cannot have special character" must be shown</t>
+  </si>
+  <si>
+    <t>Customer id cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Customer Id cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Customer id cannot have first character space" must be shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Balance </t>
+  </si>
+  <si>
+    <t>Balance cannot be empty</t>
+  </si>
+  <si>
+    <t>1) Do not enter a value in Balance Field
+2) Press TAB and move to next Field</t>
+  </si>
+  <si>
+    <t>An error message "Balance cannot be empty" must be shown</t>
+  </si>
+  <si>
+    <t>Balance must be numeric</t>
+  </si>
+  <si>
+    <t>1) Enter character value in Balance Field</t>
+  </si>
+  <si>
+    <t>An error message "Balance must be numeric" must be shown</t>
+  </si>
+  <si>
+    <t>Balance cannot have special character</t>
+  </si>
+  <si>
+    <t>1) Enter Special Character In Balance  Field</t>
+  </si>
+  <si>
+    <t>An error message "Balance cannot have special character" must be shown</t>
+  </si>
+  <si>
+    <t>Balance cannot have blank space</t>
+  </si>
+  <si>
+    <t>1) Balance cannot have Blank space
+2) Press Tab</t>
+  </si>
+  <si>
+    <t>An error message "Balance cannot have blank space" must be shown</t>
+  </si>
+  <si>
+    <t>An error message "Balance cannot have first character space" must be shown</t>
+  </si>
+  <si>
+    <t>• An error message : Account No must not be blank.</t>
+  </si>
+  <si>
+    <t>As exprected.</t>
+  </si>
+  <si>
+    <t>DC_1</t>
+  </si>
+  <si>
+    <t>DC_2</t>
+  </si>
+  <si>
+    <t>DC_3</t>
+  </si>
+  <si>
+    <t>DC_4</t>
+  </si>
+  <si>
+    <t>EA_2</t>
+  </si>
+  <si>
+    <t>EA_3</t>
+  </si>
+  <si>
+    <t>EA_4</t>
+  </si>
+  <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_6</t>
+  </si>
+  <si>
+    <t>EA_7</t>
+  </si>
+  <si>
+    <t>EA_8</t>
+  </si>
+  <si>
+    <t>EA_9</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_11</t>
+  </si>
+  <si>
+    <t>EA_12</t>
+  </si>
+  <si>
+    <t>EA_13</t>
+  </si>
+  <si>
+    <t>DA_2</t>
+  </si>
+  <si>
+    <t>DA_3</t>
+  </si>
+  <si>
+    <t>• An error message : Account No cannot be blank,</t>
+  </si>
+  <si>
+    <t>• An error message : Account No cannot be blank.</t>
+  </si>
+  <si>
+    <t>• An error message : Special characters are not allowed.</t>
+  </si>
+  <si>
+    <t>• An error message : Characters is not allowed in account no.</t>
+  </si>
+  <si>
+    <t>CS_4</t>
+  </si>
+  <si>
+    <t>CS_5</t>
+  </si>
+  <si>
+    <t>CS_6</t>
+  </si>
+  <si>
+    <t>CS_7</t>
+  </si>
+  <si>
+    <t>CS_8</t>
+  </si>
+  <si>
+    <t>CS_9</t>
+  </si>
+  <si>
+    <t>/()</t>
+  </si>
+  <si>
+    <t>• An error message : Amount lower limit cannot be blank.</t>
+  </si>
+  <si>
+    <t>• Enter the character in Number of Transcation Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• An error message : Characters are not allowed </t>
+  </si>
+  <si>
+    <t>• An error message : Number of transaction cannot be blank..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,14 +986,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +1033,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -692,11 +1063,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,20 +1092,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D42120-1CB1-394E-B5C7-828A3D5B4519}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1140,7 +1540,7 @@
     <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -1162,8 +1562,11 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34">
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1183,10 +1586,13 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -1200,10 +1606,13 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -1214,10 +1623,13 @@
         <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="119">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17">
       <c r="C5" t="s">
         <v>25</v>
       </c>
@@ -1227,11 +1639,14 @@
       <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34">
+      <c r="G5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1247,8 +1662,14 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1258,8 +1679,14 @@
       <c r="F8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1272,8 +1699,14 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1292,8 +1725,14 @@
       <c r="F11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="34">
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34">
       <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1301,7 +1740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34">
+    <row r="13" spans="1:8" ht="34">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -1314,8 +1753,14 @@
       <c r="F13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1325,8 +1770,14 @@
       <c r="F14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="34">
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1345,8 +1796,14 @@
       <c r="F16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="34">
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34">
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1354,10 +1811,16 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1370,8 +1833,14 @@
       <c r="F18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1398,8 +1867,14 @@
       <c r="F21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="34">
+      <c r="G21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34">
       <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
@@ -1407,10 +1882,16 @@
         <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" s="3" t="s">
         <v>82</v>
       </c>
@@ -1421,7 +1902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51">
+    <row r="24" spans="1:8" ht="51">
       <c r="C24" s="3" t="s">
         <v>83</v>
       </c>
@@ -1432,10 +1913,16 @@
         <v>88</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
         <v>84</v>
       </c>
@@ -1445,8 +1932,14 @@
       <c r="F25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="34">
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="34">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1460,10 +1953,16 @@
         <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
@@ -1471,10 +1970,16 @@
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" s="3" t="s">
         <v>104</v>
       </c>
@@ -1484,8 +1989,14 @@
       <c r="F29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" s="3" t="s">
         <v>105</v>
       </c>
@@ -1495,8 +2006,14 @@
       <c r="F30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="34">
+      <c r="G30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1510,10 +2027,16 @@
         <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
+        <v>195</v>
+      </c>
+      <c r="G32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
       <c r="C33" s="3" t="s">
         <v>111</v>
       </c>
@@ -1523,8 +2046,14 @@
       <c r="F33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="3:6">
+      <c r="G33" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="3" t="s">
         <v>112</v>
       </c>
@@ -1532,7 +2061,13 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1544,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31C9CAB-1EB7-AA4B-9673-75DA8FBDD6BD}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1555,7 +2090,7 @@
     <col min="4" max="4" width="61.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="68.5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1580,6 +2115,9 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="34">
       <c r="A2" t="s">
@@ -1594,6 +2132,15 @@
       <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="19" customHeight="1">
@@ -1603,6 +2150,15 @@
       <c r="D3" t="s">
         <v>121</v>
       </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" t="s">
@@ -1611,6 +2167,15 @@
       <c r="D4" t="s">
         <v>122</v>
       </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" t="s">
@@ -1619,6 +2184,15 @@
       <c r="D5" t="s">
         <v>123</v>
       </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="34">
       <c r="A7" t="s">
@@ -1636,6 +2210,12 @@
       <c r="F7" t="s">
         <v>58</v>
       </c>
+      <c r="G7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="C8" t="s">
@@ -1647,6 +2227,12 @@
       <c r="F8" t="s">
         <v>62</v>
       </c>
+      <c r="G8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="C9" s="5" t="s">
@@ -1661,6 +2247,12 @@
       <c r="F9" t="s">
         <v>63</v>
       </c>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -1681,6 +2273,12 @@
       <c r="F11" t="s">
         <v>71</v>
       </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="34">
       <c r="C12" s="3" t="s">
@@ -1689,6 +2287,12 @@
       <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="34">
       <c r="C13" s="3" t="s">
@@ -1703,6 +2307,12 @@
       <c r="F13" t="s">
         <v>72</v>
       </c>
+      <c r="G13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="3" t="s">
@@ -1714,6 +2324,12 @@
       <c r="F14" t="s">
         <v>71</v>
       </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="34">
       <c r="A16" t="s">
@@ -1734,8 +2350,14 @@
       <c r="F16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="34">
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34">
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1745,8 +2367,14 @@
       <c r="F17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
@@ -1759,16 +2387,28 @@
       <c r="F18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -1787,8 +2427,14 @@
       <c r="F21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="34">
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34">
       <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
@@ -1798,8 +2444,14 @@
       <c r="F22" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" s="3" t="s">
         <v>82</v>
       </c>
@@ -1809,8 +2461,14 @@
       <c r="E23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="51">
+      <c r="G23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51">
       <c r="C24" s="3" t="s">
         <v>83</v>
       </c>
@@ -1823,8 +2481,14 @@
       <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
         <v>84</v>
       </c>
@@ -1834,8 +2498,14 @@
       <c r="F25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="51">
+      <c r="G25" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="34">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -1851,8 +2521,14 @@
       <c r="F27" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
@@ -1862,8 +2538,14 @@
       <c r="F28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="C29" s="3" t="s">
         <v>104</v>
       </c>
@@ -1873,8 +2555,14 @@
       <c r="F29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" s="3" t="s">
         <v>105</v>
       </c>
@@ -1884,8 +2572,14 @@
       <c r="F30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="34">
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -1901,8 +2595,14 @@
       <c r="F32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="3:6">
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
       <c r="C33" s="3" t="s">
         <v>111</v>
       </c>
@@ -1912,8 +2612,14 @@
       <c r="F33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="3:6">
+      <c r="G33" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="3" t="s">
         <v>112</v>
       </c>
@@ -1922,6 +2628,12 @@
       </c>
       <c r="F34" t="s">
         <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1931,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3150DB08-8F15-3148-B15B-69A7AC8D9D49}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1942,11 +2654,12 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="74.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -1968,68 +2681,261 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34">
-      <c r="A2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34">
+      <c r="A2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="29">
+      <c r="A10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29">
+      <c r="A11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29">
+      <c r="A12" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29">
+      <c r="A13" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29">
+      <c r="A14" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,24 +2944,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBA94AB-AED2-664F-8B42-8F5B9BAB6188}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="D5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" customWidth="1"/>
     <col min="6" max="6" width="56.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2076,63 +2982,360 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1">
-      <c r="A2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="63" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
+      <c r="G4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="43">
+      <c r="A7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29">
+      <c r="A8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29">
+      <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29">
+      <c r="A10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29">
+      <c r="A11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="29">
+      <c r="A13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29">
+      <c r="A14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29">
+      <c r="A15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29">
+      <c r="A16" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29">
+      <c r="A17" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E70B2E-A3AA-564A-B7CD-5D32CCB920CF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2141,11 +3344,11 @@
     <col min="3" max="3" width="43.1640625" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
     <col min="6" max="6" width="72.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2166,13 +3369,16 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="66" customHeight="1">
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>117</v>
@@ -2183,8 +3389,17 @@
       <c r="F2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
@@ -2197,9 +3412,18 @@
       <c r="F3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="10" t="s">
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D4" t="s">
@@ -2211,16 +3435,31 @@
       <c r="F4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>133</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2230,10 +3469,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F666134-9BD4-5346-935E-E4CB38532516}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2241,12 +3480,13 @@
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2267,13 +3507,16 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1">
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51" customHeight="1">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>142</v>
@@ -2282,35 +3525,59 @@
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5864D559-33A1-1547-AACF-E3D67CBF0338}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="E1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2336,8 +3603,8 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2358,13 +3625,16 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" customHeight="1">
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" customHeight="1">
       <c r="A2" t="s">
         <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>142</v>
@@ -2373,35 +3643,53 @@
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
         <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>281</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2411,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FBB84D-A933-3B4F-81F7-892078EFCFC9}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2422,12 +3710,13 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="83.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2448,122 +3737,206 @@
       <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34">
+      <c r="H1" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
         <v>167</v>
       </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34">
-      <c r="C7" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>289</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>170</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
         <v>158</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="34">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>292</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>291</v>
+      </c>
+      <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
+++ b/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15DAC5-DF31-B442-B87F-2E325F9BE462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E58787-CC62-764B-86BF-1E41B0DCE7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="13980" activeTab="5" xr2:uid="{3731A0CD-A027-D244-A9F7-3355FF30D838}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="13980" activeTab="8" xr2:uid="{3731A0CD-A027-D244-A9F7-3355FF30D838}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Bijaya</t>
   </si>
   <si>
-    <t>V1.0</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -948,6 +945,9 @@
   </si>
   <si>
     <t>• An error message : Number of transaction cannot be blank..</t>
+  </si>
+  <si>
+    <t>Test cases executed and results were updated</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,6 +1036,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
@@ -1078,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1098,9 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
@@ -1124,6 +1133,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,20 +1462,21 @@
   <dimension ref="E4:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:7">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="5:7">
@@ -1468,10 +1490,10 @@
     </row>
     <row r="6" spans="5:7">
       <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1491,25 +1513,28 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" s="1" t="s">
@@ -1526,548 +1551,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D42120-1CB1-394E-B5C7-828A3D5B4519}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="F28" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="64" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="71.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="5" spans="1:8" ht="17">
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34">
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34">
+      <c r="C13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34">
+      <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="C18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34">
+      <c r="C22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34">
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51">
+      <c r="C24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H24" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H25" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="34">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34">
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34">
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34">
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34">
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="51">
-      <c r="C24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="34">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H27" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G28" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="34">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" t="s">
-        <v>182</v>
+      <c r="H34" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2079,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31C9CAB-1EB7-AA4B-9673-75DA8FBDD6BD}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2095,545 +2122,545 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="34">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="19" customHeight="1">
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" t="s">
         <v>182</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34">
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34">
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H13" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="34">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34">
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34">
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
       <c r="G22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51">
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
         <v>90</v>
       </c>
-      <c r="F25" t="s">
-        <v>91</v>
-      </c>
       <c r="G25" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H33" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2645,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3150DB08-8F15-3148-B15B-69A7AC8D9D49}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2661,127 +2688,127 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
       <c r="A2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>135</v>
+      <c r="D2" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="G4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2820,121 +2847,121 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="29">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29">
+      <c r="A11" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="18" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="29">
-      <c r="A11" s="16" t="s">
+      <c r="D11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29">
+      <c r="A12" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29">
-      <c r="A12" s="17" t="s">
+      <c r="D12" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29">
+      <c r="A13" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29">
-      <c r="A13" s="16" t="s">
+      <c r="D13" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29">
+      <c r="A14" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="29">
-      <c r="A14" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>182</v>
+      <c r="G14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2946,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBA94AB-AED2-664F-8B42-8F5B9BAB6188}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="D8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2962,100 +2989,100 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="13" t="s">
-        <v>131</v>
+      <c r="C3" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>259</v>
+        <v>143</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>132</v>
+      <c r="C4" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3080,248 +3107,248 @@
     </row>
     <row r="7" spans="1:8" ht="43">
       <c r="A7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>182</v>
+      <c r="H7" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29">
       <c r="A8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>182</v>
+      <c r="G8" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29">
       <c r="A9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>182</v>
+      <c r="G9" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29">
       <c r="A10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>182</v>
+      <c r="G10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29">
       <c r="A11" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>182</v>
+      <c r="E11" s="13"/>
+      <c r="F11" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="29">
       <c r="A13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>182</v>
+      <c r="G13" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29">
       <c r="A14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>182</v>
+      <c r="G14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29">
       <c r="A15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29">
+      <c r="A16" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29">
-      <c r="A16" s="16" t="s">
+      <c r="D16" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29">
+      <c r="A17" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="29">
-      <c r="A17" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>182</v>
+      <c r="G17" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3334,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E70B2E-A3AA-564A-B7CD-5D32CCB920CF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3349,117 +3376,117 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3471,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F666134-9BD4-5346-935E-E4CB38532516}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3487,97 +3514,97 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3589,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5864D559-33A1-1547-AACF-E3D67CBF0338}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="F1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3605,91 +3632,96 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68" customHeight="1">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" t="s">
-        <v>181</v>
+      <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3701,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FBB84D-A933-3B4F-81F7-892078EFCFC9}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3717,226 +3749,226 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
         <v>171</v>
       </c>
-      <c r="F10" t="s">
-        <v>172</v>
-      </c>
       <c r="G10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" t="s">
         <v>290</v>
       </c>
-      <c r="F12" t="s">
-        <v>291</v>
-      </c>
       <c r="G12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
+++ b/Guru99_BankingProject/Project/TestCase_SuiteV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijayakhatiwada/Desktop/Desktop – Bijayas MacBook Pro/Software Testing Project/Guru99_BankingProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E58787-CC62-764B-86BF-1E41B0DCE7A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742D784-35B8-6B4F-8ED1-07A364A402C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="25040" windowHeight="13980" activeTab="8" xr2:uid="{3731A0CD-A027-D244-A9F7-3355FF30D838}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="342">
   <si>
     <t>Project Name</t>
   </si>
@@ -396,9 +396,6 @@
     <t>EC_1</t>
   </si>
   <si>
-    <t>3) Special characters are not allowed</t>
-  </si>
-  <si>
     <t>EC_2</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>Verify Account Number</t>
   </si>
   <si>
-    <t>4)  First character cannot have space</t>
-  </si>
-  <si>
     <t>Validate Customer</t>
   </si>
   <si>
@@ -532,12 +526,6 @@
   </si>
   <si>
     <t>Verfiy Number of Transcation</t>
-  </si>
-  <si>
-    <t>1) Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>2) Account No - Characters are not allowed</t>
   </si>
   <si>
     <t>2)Amount Lower Limit is required</t>
@@ -607,12 +595,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Connection error is shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot be connected due to </t>
-  </si>
-  <si>
     <t>No error message is shown</t>
   </si>
   <si>
@@ -948,6 +930,172 @@
   </si>
   <si>
     <t>Test cases executed and results were updated</t>
+  </si>
+  <si>
+    <t>NC_8</t>
+  </si>
+  <si>
+    <t>NC_9</t>
+  </si>
+  <si>
+    <t>NC_10</t>
+  </si>
+  <si>
+    <t>NC_11</t>
+  </si>
+  <si>
+    <t>NC_12</t>
+  </si>
+  <si>
+    <t>NC_13</t>
+  </si>
+  <si>
+    <t>NC_14</t>
+  </si>
+  <si>
+    <t>NC_15</t>
+  </si>
+  <si>
+    <t>NC_16</t>
+  </si>
+  <si>
+    <t>NC_17</t>
+  </si>
+  <si>
+    <t>NC_18</t>
+  </si>
+  <si>
+    <t>NC_19</t>
+  </si>
+  <si>
+    <t>NC_20</t>
+  </si>
+  <si>
+    <t>NC_21</t>
+  </si>
+  <si>
+    <t>NC_22</t>
+  </si>
+  <si>
+    <t>NC_23</t>
+  </si>
+  <si>
+    <t>NC_24</t>
+  </si>
+  <si>
+    <t>NC_25</t>
+  </si>
+  <si>
+    <t>NC_26</t>
+  </si>
+  <si>
+    <t>NC_27</t>
+  </si>
+  <si>
+    <t>huasdhfuasd890()</t>
+  </si>
+  <si>
+    <t>An error message : Address must not be blank.</t>
+  </si>
+  <si>
+    <t>EC_8</t>
+  </si>
+  <si>
+    <t>EC_9</t>
+  </si>
+  <si>
+    <t>EC_10</t>
+  </si>
+  <si>
+    <t>EC_11</t>
+  </si>
+  <si>
+    <t>EC_12</t>
+  </si>
+  <si>
+    <t>EC_13</t>
+  </si>
+  <si>
+    <t>EC_14</t>
+  </si>
+  <si>
+    <t>EC_15</t>
+  </si>
+  <si>
+    <t>EC_16</t>
+  </si>
+  <si>
+    <t>EC_17</t>
+  </si>
+  <si>
+    <t>EC_18</t>
+  </si>
+  <si>
+    <t>EC_19</t>
+  </si>
+  <si>
+    <t>EC_20</t>
+  </si>
+  <si>
+    <t>EC_21</t>
+  </si>
+  <si>
+    <t>EC_22</t>
+  </si>
+  <si>
+    <t>EC_23</t>
+  </si>
+  <si>
+    <t>EC_24</t>
+  </si>
+  <si>
+    <t>EC_25</t>
+  </si>
+  <si>
+    <t>EC_26</t>
+  </si>
+  <si>
+    <t>EC_27</t>
+  </si>
+  <si>
+    <t>An error message : City field must not be blank.</t>
+  </si>
+  <si>
+    <t>• Enter the special characters in  PIN CODE field.</t>
+  </si>
+  <si>
+    <t>Customer ID is required</t>
+  </si>
+  <si>
+    <t>Special character are not allowed</t>
+  </si>
+  <si>
+    <t>Characters are not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First character cannot have space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer ID is required</t>
+  </si>
+  <si>
+    <t>First character cannot have space</t>
+  </si>
+  <si>
+    <t>Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Account No - Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>• Enter the character in Amountt No field.</t>
+  </si>
+  <si>
+    <t>• Do not enter anything in Number of transcation  field
+• Fill up the other field and submit the data.</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1086,11 +1234,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1144,6 +1327,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,7 +1731,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="5:7">
@@ -1549,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D42120-1CB1-394E-B5C7-828A3D5B4519}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="D27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1590,14 +1788,14 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1613,13 +1811,17 @@
         <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1633,13 +1835,17 @@
         <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1650,13 +1856,17 @@
         <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,17 +1877,17 @@
         <v>60</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1687,16 +1897,20 @@
         <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1707,13 +1921,17 @@
         <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="C9" s="21" t="s">
         <v>30</v>
       </c>
@@ -1727,17 +1945,17 @@
         <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1753,13 +1971,17 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34">
+      <c r="A12" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="12" t="s">
         <v>64</v>
       </c>
@@ -1768,6 +1990,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="34">
+      <c r="A13" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="27"/>
       <c r="C13" s="12" t="s">
         <v>65</v>
       </c>
@@ -1781,13 +2007,17 @@
         <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="12" t="s">
         <v>66</v>
       </c>
@@ -1798,17 +2028,17 @@
         <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -1824,13 +2054,17 @@
         <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34">
+      <c r="A17" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="27"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
@@ -1838,16 +2072,20 @@
         <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="A18" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
@@ -1861,13 +2099,17 @@
         <v>79</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="28"/>
       <c r="C19" s="12" t="s">
         <v>37</v>
       </c>
@@ -1877,9 +2119,9 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -1895,13 +2137,17 @@
         <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34">
+      <c r="A22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="27"/>
       <c r="C22" s="12" t="s">
         <v>80</v>
       </c>
@@ -1909,16 +2155,20 @@
         <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8">
+      <c r="A23" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="12" t="s">
         <v>81</v>
       </c>
@@ -1930,6 +2180,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="51">
+      <c r="A24" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="27"/>
       <c r="C24" s="12" t="s">
         <v>82</v>
       </c>
@@ -1940,16 +2194,20 @@
         <v>87</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="12" t="s">
         <v>83</v>
       </c>
@@ -1960,17 +2218,17 @@
         <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -1980,50 +2238,68 @@
         <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="27"/>
       <c r="C29" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:8">
+      <c r="A30" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="28"/>
       <c r="C30" s="12" t="s">
         <v>104</v>
       </c>
@@ -2034,17 +2310,20 @@
         <v>107</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="34">
       <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2054,33 +2333,44 @@
         <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="27"/>
       <c r="C33" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>95</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="28"/>
       <c r="C34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2088,16 +2378,30 @@
         <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2106,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31C9CAB-1EB7-AA4B-9673-75DA8FBDD6BD}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:H34"/>
+    <sheetView topLeftCell="F22" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2117,7 +2421,7 @@
     <col min="4" max="4" width="61.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="68.5" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2143,7 +2447,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="34">
@@ -2151,79 +2455,88 @@
         <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="19" customHeight="1">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="19" customHeight="1">
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
         <v>117</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2237,14 +2550,17 @@
       <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
-        <v>182</v>
+      <c r="G7" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -2254,14 +2570,17 @@
       <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
-        <v>183</v>
+      <c r="G8" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
@@ -2274,16 +2593,16 @@
       <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>183</v>
+      <c r="G9" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -2300,28 +2619,37 @@
       <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
-        <v>183</v>
+      <c r="G11" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>183</v>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
@@ -2334,14 +2662,17 @@
       <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
-        <v>183</v>
+      <c r="G13" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>312</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2351,16 +2682,16 @@
       <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
-        <v>183</v>
+      <c r="G14" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="34">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -2377,14 +2708,17 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
-        <v>183</v>
+      <c r="G16" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2394,14 +2728,17 @@
       <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="G17" t="s">
-        <v>183</v>
+      <c r="G17" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2414,33 +2751,39 @@
       <c r="F18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
-        <v>183</v>
+      <c r="G18" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
-        <v>183</v>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" t="s">
         <v>125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -2454,14 +2797,17 @@
       <c r="F21" t="s">
         <v>96</v>
       </c>
-      <c r="G21" t="s">
-        <v>183</v>
+      <c r="G21" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>80</v>
       </c>
@@ -2471,31 +2817,40 @@
       <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" t="s">
-        <v>183</v>
+      <c r="G22" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>319</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="G23" t="s">
-        <v>183</v>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="51">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
@@ -2508,14 +2863,17 @@
       <c r="F24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G24" t="s">
-        <v>183</v>
+      <c r="G24" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
@@ -2525,16 +2883,16 @@
       <c r="F25" t="s">
         <v>90</v>
       </c>
-      <c r="G25" t="s">
-        <v>183</v>
+      <c r="G25" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="34">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -2548,14 +2906,17 @@
       <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s">
-        <v>183</v>
+      <c r="G27" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>102</v>
       </c>
@@ -2565,14 +2926,17 @@
       <c r="F28" t="s">
         <v>100</v>
       </c>
-      <c r="G28" t="s">
-        <v>183</v>
+      <c r="G28" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>103</v>
       </c>
@@ -2582,14 +2946,17 @@
       <c r="F29" t="s">
         <v>106</v>
       </c>
-      <c r="G29" t="s">
-        <v>183</v>
+      <c r="G29" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>325</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>104</v>
       </c>
@@ -2599,16 +2966,16 @@
       <c r="F30" t="s">
         <v>107</v>
       </c>
-      <c r="G30" t="s">
-        <v>183</v>
+      <c r="G30" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -2622,14 +2989,17 @@
       <c r="F32" t="s">
         <v>108</v>
       </c>
-      <c r="G32" t="s">
-        <v>183</v>
+      <c r="G32" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>327</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>110</v>
       </c>
@@ -2639,14 +3009,17 @@
       <c r="F33" t="s">
         <v>109</v>
       </c>
-      <c r="G33" t="s">
-        <v>183</v>
+      <c r="G33" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>328</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>111</v>
       </c>
@@ -2656,11 +3029,11 @@
       <c r="F34" t="s">
         <v>107</v>
       </c>
-      <c r="G34" t="s">
-        <v>183</v>
+      <c r="G34" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3046,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H14"/>
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2709,101 +3082,101 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="12" t="s">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2848,120 +3221,120 @@
     </row>
     <row r="10" spans="1:8" ht="29">
       <c r="A10" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="17" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29">
       <c r="A11" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29">
       <c r="A12" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29">
       <c r="A13" s="15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29">
       <c r="A14" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2973,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBA94AB-AED2-664F-8B42-8F5B9BAB6188}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H17"/>
+    <sheetView topLeftCell="C8" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3010,79 +3383,79 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3107,120 +3480,120 @@
     </row>
     <row r="7" spans="1:8" ht="43">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="17" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29">
       <c r="A9" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29">
       <c r="A10" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3235,120 +3608,120 @@
     </row>
     <row r="13" spans="1:8" ht="29">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="17" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29">
       <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="29">
       <c r="A15" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29">
       <c r="A16" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29">
       <c r="A17" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="17" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3361,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E70B2E-A3AA-564A-B7CD-5D32CCB920CF}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3397,99 +3770,105 @@
         <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
+        <v>253</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>260</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B4" s="30"/>
       <c r="C4" s="8" t="s">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>262</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3498,7 +3877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F666134-9BD4-5346-935E-E4CB38532516}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="136" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3535,76 +3914,76 @@
         <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" customHeight="1">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5864D559-33A1-1547-AACF-E3D67CBF0338}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="184" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="184" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3653,75 +4032,75 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="68" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3733,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FBB84D-A933-3B4F-81F7-892078EFCFC9}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3770,205 +4149,205 @@
         <v>18</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
         <v>162</v>
       </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>166</v>
-      </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34">
       <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" t="s">
-        <v>288</v>
-      </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34">
       <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" t="s">
-        <v>291</v>
-      </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
